--- a/biology/Mycologie/Lecania/Lecania.xlsx
+++ b/biology/Mycologie/Lecania/Lecania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lecania est un genre de lichens de la famille des Ramalinaceae[1]. Les espèces de ce genre sont présentes dans les régions à climat tempéré[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lecania est un genre de lichens de la famille des Ramalinaceae. Les espèces de ce genre sont présentes dans les régions à climat tempéré.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (22 février 2024)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (22 février 2024) :
 Lecania achroelloides (Nyl.) Zahlbr., 1928
 Lecania actaea (Nyl.) B. de Lesd., 1910
 Lecania adplicata (Kremp.) Zahlbr.
@@ -823,10 +837,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Lecania a été décrit en 1853 par le paléobotaniste et lichénologue lombardo-vénitien Abramo Massalongo (1824-1860)[3].
-Lecania a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Lecania a été décrit en 1853 par le paléobotaniste et lichénologue lombardo-vénitien Abramo Massalongo (1824-1860).
+Lecania a pour synonymes :
 Adermatis Clem., 1909
 Aipospila Trevis., 1857
 Bayrhofferia Trevis., 1857
@@ -864,7 +880,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) A. Massalongo, Alcuni generi di licheni nuovamente limitati e descritti, Vérone, Antonelli, 1853, 14 p..</t>
         </is>
